--- a/po_analysis_by_asin/B0BH9BBLHB_po_data.xlsx
+++ b/po_analysis_by_asin/B0BH9BBLHB_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,79 +452,79 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>108</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>90</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45327</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>180</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45341</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45348</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45355</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45369</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>276</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45376</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>6</v>
@@ -532,47 +532,47 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45383</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45390</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45509</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45523</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45537</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45544</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>24</v>
@@ -580,49 +580,241 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45551</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>12</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45565</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>24</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45572</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45579</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>36</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45586</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45593</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B23" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B47" t="n">
         <v>36</v>
       </c>
     </row>
@@ -637,7 +829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,57 +851,129 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>270</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>234</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>330</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>24</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45505</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>24</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45536</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>60</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45566</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B8" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B17" t="n">
         <v>120</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BH9BBLHB_po_data.xlsx
+++ b/po_analysis_by_asin/B0BH9BBLHB_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -845,7 +846,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -975,6 +976,803 @@
       </c>
       <c r="B17" t="n">
         <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>47</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-15.5386069732541</v>
+      </c>
+      <c r="D2" t="n">
+        <v>112.9575244043992</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>47</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-19.24704525360733</v>
+      </c>
+      <c r="D3" t="n">
+        <v>107.9705995330653</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>47</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-14.67523667019298</v>
+      </c>
+      <c r="D4" t="n">
+        <v>107.36877368816</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>47</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-16.43559427654041</v>
+      </c>
+      <c r="D5" t="n">
+        <v>106.4177911138166</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>47</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-19.60779893867665</v>
+      </c>
+      <c r="D6" t="n">
+        <v>106.3564081860391</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>47</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-14.63120749911693</v>
+      </c>
+      <c r="D7" t="n">
+        <v>113.0537838570039</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>47</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-11.41995347914994</v>
+      </c>
+      <c r="D8" t="n">
+        <v>107.4441376295416</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>47</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-18.53320107900052</v>
+      </c>
+      <c r="D9" t="n">
+        <v>105.4877678039122</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>47</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-18.41660300060996</v>
+      </c>
+      <c r="D10" t="n">
+        <v>110.7691817490527</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>47</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-13.49853756872608</v>
+      </c>
+      <c r="D11" t="n">
+        <v>109.3486093625822</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>47</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-16.66258835235682</v>
+      </c>
+      <c r="D12" t="n">
+        <v>111.6557337841612</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>47</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-19.59217421950725</v>
+      </c>
+      <c r="D13" t="n">
+        <v>108.3832379127191</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>46</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-19.22711641788708</v>
+      </c>
+      <c r="D14" t="n">
+        <v>108.1034325681919</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>46</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-23.11991000709974</v>
+      </c>
+      <c r="D15" t="n">
+        <v>108.7858462412001</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>46</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-20.69214704694719</v>
+      </c>
+      <c r="D16" t="n">
+        <v>114.5794594517367</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>46</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-17.39519948898724</v>
+      </c>
+      <c r="D17" t="n">
+        <v>109.9091195746004</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>46</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-15.0123033702108</v>
+      </c>
+      <c r="D18" t="n">
+        <v>107.9546094042931</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>46</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-15.4256150086343</v>
+      </c>
+      <c r="D19" t="n">
+        <v>109.3186734504024</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>46</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-19.52124426059091</v>
+      </c>
+      <c r="D20" t="n">
+        <v>107.6093537081921</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>46</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-22.83333386689473</v>
+      </c>
+      <c r="D21" t="n">
+        <v>110.1233686501998</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>45</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-16.40260169531941</v>
+      </c>
+      <c r="D22" t="n">
+        <v>111.7374542776398</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>45</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-22.07543153048564</v>
+      </c>
+      <c r="D23" t="n">
+        <v>107.0086827764792</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>45</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-24.55725495379976</v>
+      </c>
+      <c r="D24" t="n">
+        <v>108.4320640317136</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>45</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-16.48902623034794</v>
+      </c>
+      <c r="D25" t="n">
+        <v>106.2699030625866</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>45</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-23.83406419595261</v>
+      </c>
+      <c r="D26" t="n">
+        <v>113.6335991246604</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>45</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-21.80449768375315</v>
+      </c>
+      <c r="D27" t="n">
+        <v>108.760068836617</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>45</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-19.60473305437578</v>
+      </c>
+      <c r="D28" t="n">
+        <v>108.1718475044398</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>45</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-18.33362235967701</v>
+      </c>
+      <c r="D29" t="n">
+        <v>105.1445575118513</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>44</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-17.16800632145485</v>
+      </c>
+      <c r="D30" t="n">
+        <v>102.958468984275</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>44</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-24.03301593000862</v>
+      </c>
+      <c r="D31" t="n">
+        <v>110.6305201681061</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>44</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-18.05162271451</v>
+      </c>
+      <c r="D32" t="n">
+        <v>108.5349926781943</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>44</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-17.8263348249544</v>
+      </c>
+      <c r="D33" t="n">
+        <v>106.6516258686141</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>44</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-23.38814161794375</v>
+      </c>
+      <c r="D34" t="n">
+        <v>110.4996898091871</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>44</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-22.56784859809259</v>
+      </c>
+      <c r="D35" t="n">
+        <v>106.7682429791415</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>44</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-20.66389732636511</v>
+      </c>
+      <c r="D36" t="n">
+        <v>106.0553951221821</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>44</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-20.9010819005611</v>
+      </c>
+      <c r="D37" t="n">
+        <v>107.8971289910267</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>43</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-19.46072763901211</v>
+      </c>
+      <c r="D38" t="n">
+        <v>104.0092137878037</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>43</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-21.03795212276936</v>
+      </c>
+      <c r="D39" t="n">
+        <v>108.2240466498885</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>42</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-23.97016446564671</v>
+      </c>
+      <c r="D40" t="n">
+        <v>107.4039207125151</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>42</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-24.52990251081908</v>
+      </c>
+      <c r="D41" t="n">
+        <v>107.0189256195133</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>42</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-21.44229238277135</v>
+      </c>
+      <c r="D42" t="n">
+        <v>105.8962822628363</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>42</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-20.71880165877505</v>
+      </c>
+      <c r="D43" t="n">
+        <v>103.8445122586859</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-22.03349345688114</v>
+      </c>
+      <c r="D44" t="n">
+        <v>104.9446191884181</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>42</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-19.40334565546622</v>
+      </c>
+      <c r="D45" t="n">
+        <v>108.1278752843098</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>42</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-23.48288923051979</v>
+      </c>
+      <c r="D46" t="n">
+        <v>106.7178119226458</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>42</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-18.85305256672553</v>
+      </c>
+      <c r="D47" t="n">
+        <v>106.9637981184635</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>42</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-24.44471503525594</v>
+      </c>
+      <c r="D48" t="n">
+        <v>105.6211240349869</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>42</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-18.72561047330317</v>
+      </c>
+      <c r="D49" t="n">
+        <v>106.4696840150491</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>42</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-23.37880706338751</v>
+      </c>
+      <c r="D50" t="n">
+        <v>104.1878207020818</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>42</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-21.77821846536979</v>
+      </c>
+      <c r="D51" t="n">
+        <v>107.7057379168826</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>42</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-22.02360332243084</v>
+      </c>
+      <c r="D52" t="n">
+        <v>106.1436131743291</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>41</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-20.3342333736896</v>
+      </c>
+      <c r="D53" t="n">
+        <v>103.9361693715126</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>41</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-17.03881079774121</v>
+      </c>
+      <c r="D54" t="n">
+        <v>106.7097945664641</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>41</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-20.06607580847176</v>
+      </c>
+      <c r="D55" t="n">
+        <v>102.9111442166208</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BH9BBLHB_po_data.xlsx
+++ b/po_analysis_by_asin/B0BH9BBLHB_po_data.xlsx
@@ -989,7 +989,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1008,16 +1008,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1026,12 +1016,6 @@
       <c r="B2" t="n">
         <v>47</v>
       </c>
-      <c r="C2" t="n">
-        <v>-15.5386069732541</v>
-      </c>
-      <c r="D2" t="n">
-        <v>112.9575244043992</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1040,12 +1024,6 @@
       <c r="B3" t="n">
         <v>47</v>
       </c>
-      <c r="C3" t="n">
-        <v>-19.24704525360733</v>
-      </c>
-      <c r="D3" t="n">
-        <v>107.9705995330653</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1054,12 +1032,6 @@
       <c r="B4" t="n">
         <v>47</v>
       </c>
-      <c r="C4" t="n">
-        <v>-14.67523667019298</v>
-      </c>
-      <c r="D4" t="n">
-        <v>107.36877368816</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1068,12 +1040,6 @@
       <c r="B5" t="n">
         <v>47</v>
       </c>
-      <c r="C5" t="n">
-        <v>-16.43559427654041</v>
-      </c>
-      <c r="D5" t="n">
-        <v>106.4177911138166</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1082,12 +1048,6 @@
       <c r="B6" t="n">
         <v>47</v>
       </c>
-      <c r="C6" t="n">
-        <v>-19.60779893867665</v>
-      </c>
-      <c r="D6" t="n">
-        <v>106.3564081860391</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1096,12 +1056,6 @@
       <c r="B7" t="n">
         <v>47</v>
       </c>
-      <c r="C7" t="n">
-        <v>-14.63120749911693</v>
-      </c>
-      <c r="D7" t="n">
-        <v>113.0537838570039</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1110,12 +1064,6 @@
       <c r="B8" t="n">
         <v>47</v>
       </c>
-      <c r="C8" t="n">
-        <v>-11.41995347914994</v>
-      </c>
-      <c r="D8" t="n">
-        <v>107.4441376295416</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1124,12 +1072,6 @@
       <c r="B9" t="n">
         <v>47</v>
       </c>
-      <c r="C9" t="n">
-        <v>-18.53320107900052</v>
-      </c>
-      <c r="D9" t="n">
-        <v>105.4877678039122</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1138,12 +1080,6 @@
       <c r="B10" t="n">
         <v>47</v>
       </c>
-      <c r="C10" t="n">
-        <v>-18.41660300060996</v>
-      </c>
-      <c r="D10" t="n">
-        <v>110.7691817490527</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1152,12 +1088,6 @@
       <c r="B11" t="n">
         <v>47</v>
       </c>
-      <c r="C11" t="n">
-        <v>-13.49853756872608</v>
-      </c>
-      <c r="D11" t="n">
-        <v>109.3486093625822</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1166,12 +1096,6 @@
       <c r="B12" t="n">
         <v>47</v>
       </c>
-      <c r="C12" t="n">
-        <v>-16.66258835235682</v>
-      </c>
-      <c r="D12" t="n">
-        <v>111.6557337841612</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1180,12 +1104,6 @@
       <c r="B13" t="n">
         <v>47</v>
       </c>
-      <c r="C13" t="n">
-        <v>-19.59217421950725</v>
-      </c>
-      <c r="D13" t="n">
-        <v>108.3832379127191</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1194,12 +1112,6 @@
       <c r="B14" t="n">
         <v>46</v>
       </c>
-      <c r="C14" t="n">
-        <v>-19.22711641788708</v>
-      </c>
-      <c r="D14" t="n">
-        <v>108.1034325681919</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1208,12 +1120,6 @@
       <c r="B15" t="n">
         <v>46</v>
       </c>
-      <c r="C15" t="n">
-        <v>-23.11991000709974</v>
-      </c>
-      <c r="D15" t="n">
-        <v>108.7858462412001</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1222,12 +1128,6 @@
       <c r="B16" t="n">
         <v>46</v>
       </c>
-      <c r="C16" t="n">
-        <v>-20.69214704694719</v>
-      </c>
-      <c r="D16" t="n">
-        <v>114.5794594517367</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1236,12 +1136,6 @@
       <c r="B17" t="n">
         <v>46</v>
       </c>
-      <c r="C17" t="n">
-        <v>-17.39519948898724</v>
-      </c>
-      <c r="D17" t="n">
-        <v>109.9091195746004</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1250,12 +1144,6 @@
       <c r="B18" t="n">
         <v>46</v>
       </c>
-      <c r="C18" t="n">
-        <v>-15.0123033702108</v>
-      </c>
-      <c r="D18" t="n">
-        <v>107.9546094042931</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1264,12 +1152,6 @@
       <c r="B19" t="n">
         <v>46</v>
       </c>
-      <c r="C19" t="n">
-        <v>-15.4256150086343</v>
-      </c>
-      <c r="D19" t="n">
-        <v>109.3186734504024</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1278,12 +1160,6 @@
       <c r="B20" t="n">
         <v>46</v>
       </c>
-      <c r="C20" t="n">
-        <v>-19.52124426059091</v>
-      </c>
-      <c r="D20" t="n">
-        <v>107.6093537081921</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1292,12 +1168,6 @@
       <c r="B21" t="n">
         <v>46</v>
       </c>
-      <c r="C21" t="n">
-        <v>-22.83333386689473</v>
-      </c>
-      <c r="D21" t="n">
-        <v>110.1233686501998</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1306,12 +1176,6 @@
       <c r="B22" t="n">
         <v>45</v>
       </c>
-      <c r="C22" t="n">
-        <v>-16.40260169531941</v>
-      </c>
-      <c r="D22" t="n">
-        <v>111.7374542776398</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1320,12 +1184,6 @@
       <c r="B23" t="n">
         <v>45</v>
       </c>
-      <c r="C23" t="n">
-        <v>-22.07543153048564</v>
-      </c>
-      <c r="D23" t="n">
-        <v>107.0086827764792</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1334,12 +1192,6 @@
       <c r="B24" t="n">
         <v>45</v>
       </c>
-      <c r="C24" t="n">
-        <v>-24.55725495379976</v>
-      </c>
-      <c r="D24" t="n">
-        <v>108.4320640317136</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1348,12 +1200,6 @@
       <c r="B25" t="n">
         <v>45</v>
       </c>
-      <c r="C25" t="n">
-        <v>-16.48902623034794</v>
-      </c>
-      <c r="D25" t="n">
-        <v>106.2699030625866</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1362,12 +1208,6 @@
       <c r="B26" t="n">
         <v>45</v>
       </c>
-      <c r="C26" t="n">
-        <v>-23.83406419595261</v>
-      </c>
-      <c r="D26" t="n">
-        <v>113.6335991246604</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1376,12 +1216,6 @@
       <c r="B27" t="n">
         <v>45</v>
       </c>
-      <c r="C27" t="n">
-        <v>-21.80449768375315</v>
-      </c>
-      <c r="D27" t="n">
-        <v>108.760068836617</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1390,12 +1224,6 @@
       <c r="B28" t="n">
         <v>45</v>
       </c>
-      <c r="C28" t="n">
-        <v>-19.60473305437578</v>
-      </c>
-      <c r="D28" t="n">
-        <v>108.1718475044398</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1404,12 +1232,6 @@
       <c r="B29" t="n">
         <v>45</v>
       </c>
-      <c r="C29" t="n">
-        <v>-18.33362235967701</v>
-      </c>
-      <c r="D29" t="n">
-        <v>105.1445575118513</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1418,12 +1240,6 @@
       <c r="B30" t="n">
         <v>44</v>
       </c>
-      <c r="C30" t="n">
-        <v>-17.16800632145485</v>
-      </c>
-      <c r="D30" t="n">
-        <v>102.958468984275</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1432,12 +1248,6 @@
       <c r="B31" t="n">
         <v>44</v>
       </c>
-      <c r="C31" t="n">
-        <v>-24.03301593000862</v>
-      </c>
-      <c r="D31" t="n">
-        <v>110.6305201681061</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1446,12 +1256,6 @@
       <c r="B32" t="n">
         <v>44</v>
       </c>
-      <c r="C32" t="n">
-        <v>-18.05162271451</v>
-      </c>
-      <c r="D32" t="n">
-        <v>108.5349926781943</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1460,12 +1264,6 @@
       <c r="B33" t="n">
         <v>44</v>
       </c>
-      <c r="C33" t="n">
-        <v>-17.8263348249544</v>
-      </c>
-      <c r="D33" t="n">
-        <v>106.6516258686141</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1474,12 +1272,6 @@
       <c r="B34" t="n">
         <v>44</v>
       </c>
-      <c r="C34" t="n">
-        <v>-23.38814161794375</v>
-      </c>
-      <c r="D34" t="n">
-        <v>110.4996898091871</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1488,12 +1280,6 @@
       <c r="B35" t="n">
         <v>44</v>
       </c>
-      <c r="C35" t="n">
-        <v>-22.56784859809259</v>
-      </c>
-      <c r="D35" t="n">
-        <v>106.7682429791415</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1502,12 +1288,6 @@
       <c r="B36" t="n">
         <v>44</v>
       </c>
-      <c r="C36" t="n">
-        <v>-20.66389732636511</v>
-      </c>
-      <c r="D36" t="n">
-        <v>106.0553951221821</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1516,12 +1296,6 @@
       <c r="B37" t="n">
         <v>44</v>
       </c>
-      <c r="C37" t="n">
-        <v>-20.9010819005611</v>
-      </c>
-      <c r="D37" t="n">
-        <v>107.8971289910267</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1530,12 +1304,6 @@
       <c r="B38" t="n">
         <v>43</v>
       </c>
-      <c r="C38" t="n">
-        <v>-19.46072763901211</v>
-      </c>
-      <c r="D38" t="n">
-        <v>104.0092137878037</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1544,12 +1312,6 @@
       <c r="B39" t="n">
         <v>43</v>
       </c>
-      <c r="C39" t="n">
-        <v>-21.03795212276936</v>
-      </c>
-      <c r="D39" t="n">
-        <v>108.2240466498885</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1558,12 +1320,6 @@
       <c r="B40" t="n">
         <v>42</v>
       </c>
-      <c r="C40" t="n">
-        <v>-23.97016446564671</v>
-      </c>
-      <c r="D40" t="n">
-        <v>107.4039207125151</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1572,12 +1328,6 @@
       <c r="B41" t="n">
         <v>42</v>
       </c>
-      <c r="C41" t="n">
-        <v>-24.52990251081908</v>
-      </c>
-      <c r="D41" t="n">
-        <v>107.0189256195133</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1586,12 +1336,6 @@
       <c r="B42" t="n">
         <v>42</v>
       </c>
-      <c r="C42" t="n">
-        <v>-21.44229238277135</v>
-      </c>
-      <c r="D42" t="n">
-        <v>105.8962822628363</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1600,12 +1344,6 @@
       <c r="B43" t="n">
         <v>42</v>
       </c>
-      <c r="C43" t="n">
-        <v>-20.71880165877505</v>
-      </c>
-      <c r="D43" t="n">
-        <v>103.8445122586859</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1614,12 +1352,6 @@
       <c r="B44" t="n">
         <v>42</v>
       </c>
-      <c r="C44" t="n">
-        <v>-22.03349345688114</v>
-      </c>
-      <c r="D44" t="n">
-        <v>104.9446191884181</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1628,12 +1360,6 @@
       <c r="B45" t="n">
         <v>42</v>
       </c>
-      <c r="C45" t="n">
-        <v>-19.40334565546622</v>
-      </c>
-      <c r="D45" t="n">
-        <v>108.1278752843098</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1642,12 +1368,6 @@
       <c r="B46" t="n">
         <v>42</v>
       </c>
-      <c r="C46" t="n">
-        <v>-23.48288923051979</v>
-      </c>
-      <c r="D46" t="n">
-        <v>106.7178119226458</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1656,12 +1376,6 @@
       <c r="B47" t="n">
         <v>42</v>
       </c>
-      <c r="C47" t="n">
-        <v>-18.85305256672553</v>
-      </c>
-      <c r="D47" t="n">
-        <v>106.9637981184635</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1670,12 +1384,6 @@
       <c r="B48" t="n">
         <v>42</v>
       </c>
-      <c r="C48" t="n">
-        <v>-24.44471503525594</v>
-      </c>
-      <c r="D48" t="n">
-        <v>105.6211240349869</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1684,12 +1392,6 @@
       <c r="B49" t="n">
         <v>42</v>
       </c>
-      <c r="C49" t="n">
-        <v>-18.72561047330317</v>
-      </c>
-      <c r="D49" t="n">
-        <v>106.4696840150491</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1698,12 +1400,6 @@
       <c r="B50" t="n">
         <v>42</v>
       </c>
-      <c r="C50" t="n">
-        <v>-23.37880706338751</v>
-      </c>
-      <c r="D50" t="n">
-        <v>104.1878207020818</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1712,12 +1408,6 @@
       <c r="B51" t="n">
         <v>42</v>
       </c>
-      <c r="C51" t="n">
-        <v>-21.77821846536979</v>
-      </c>
-      <c r="D51" t="n">
-        <v>107.7057379168826</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1726,12 +1416,6 @@
       <c r="B52" t="n">
         <v>42</v>
       </c>
-      <c r="C52" t="n">
-        <v>-22.02360332243084</v>
-      </c>
-      <c r="D52" t="n">
-        <v>106.1436131743291</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1740,12 +1424,6 @@
       <c r="B53" t="n">
         <v>41</v>
       </c>
-      <c r="C53" t="n">
-        <v>-20.3342333736896</v>
-      </c>
-      <c r="D53" t="n">
-        <v>103.9361693715126</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1754,12 +1432,6 @@
       <c r="B54" t="n">
         <v>41</v>
       </c>
-      <c r="C54" t="n">
-        <v>-17.03881079774121</v>
-      </c>
-      <c r="D54" t="n">
-        <v>106.7097945664641</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1767,12 +1439,6 @@
       </c>
       <c r="B55" t="n">
         <v>41</v>
-      </c>
-      <c r="C55" t="n">
-        <v>-20.06607580847176</v>
-      </c>
-      <c r="D55" t="n">
-        <v>102.9111442166208</v>
       </c>
     </row>
   </sheetData>
